--- a/docs/Progress.xlsx
+++ b/docs/Progress.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LAGS-heartbeat\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chemi\Documents\GitHub\LAGS-heartbeat\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FF563F-87DB-4E66-AFEE-7B38B47A594C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037E54D0-5FA7-4728-BBC8-5E9C990D16F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="11400" windowWidth="19440" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -141,12 +141,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
+        <fgColor rgb="FFFF9999"/>
         <bgColor rgb="FF99FF99"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -158,19 +158,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -362,30 +349,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,6 +381,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9999"/>
       <color rgb="FFFFCCCC"/>
     </mruColors>
   </colors>
@@ -609,121 +597,121 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="53.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1"/>
-    <col min="8" max="26" width="11.42578125" customWidth="1"/>
+    <col min="1" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="53.6640625" customWidth="1"/>
+    <col min="7" max="7" width="24.88671875" customWidth="1"/>
+    <col min="8" max="26" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="20" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="20" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="20" t="s">
+      <c r="E5" s="22"/>
+      <c r="F5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="21"/>
       <c r="I5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="20" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="20" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Progress.xlsx
+++ b/docs/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chemi\Documents\GitHub\LAGS-heartbeat\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037E54D0-5FA7-4728-BBC8-5E9C990D16F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620DA761-D835-428E-B462-F75A84D4236D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -364,15 +364,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,6 +380,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99FF99"/>
       <color rgb="FFFF9999"/>
       <color rgb="FFFFCCCC"/>
     </mruColors>
@@ -597,7 +597,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -609,12 +609,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1">
@@ -641,7 +641,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="23"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="4"/>
       <c r="F3" s="15" t="s">
         <v>7</v>
@@ -658,7 +658,7 @@
       <c r="F4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="20"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="1" t="s">
         <v>10</v>
       </c>
@@ -670,11 +670,11 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="22"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="21"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="1" t="s">
         <v>13</v>
       </c>

--- a/docs/Progress.xlsx
+++ b/docs/Progress.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LAGS-heartbeat\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FF563F-87DB-4E66-AFEE-7B38B47A594C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="11400" windowWidth="19440" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Enemigos</t>
   </si>
@@ -76,37 +85,47 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
-    <font/>
     <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <strike/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -120,38 +139,20 @@
         <bgColor rgb="FFFF9999"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FF99FF99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
-    <border/>
+  <borders count="16">
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -166,6 +167,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -178,50 +180,236 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -411,148 +599,142 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="11.5"/>
-    <col customWidth="1" min="7" max="7" width="51.5"/>
-    <col customWidth="1" min="8" max="26" width="11.5"/>
+    <col min="1" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="53.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="8" max="26" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="5" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:9" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -1541,9 +1723,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/Progress.xlsx
+++ b/docs/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chemi\Documents\GitHub\LAGS-heartbeat\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620DA761-D835-428E-B462-F75A84D4236D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6242A806-44BC-40E2-85BA-03668D717C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Enemigos</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>Level unlock debuff, attacks level unlock</t>
+  </si>
+  <si>
+    <t>Heart &amp; Eyes</t>
+  </si>
+  <si>
+    <t>Boss</t>
   </si>
 </sst>
 </file>
@@ -142,7 +148,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9999"/>
-        <bgColor rgb="FF99FF99"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -344,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -366,12 +372,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,8 +387,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9999"/>
       <color rgb="FF99FF99"/>
-      <color rgb="FFFF9999"/>
       <color rgb="FFFFCCCC"/>
     </mruColors>
   </colors>
@@ -597,7 +604,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -609,12 +616,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1">
@@ -670,7 +677,7 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="19"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="15" t="s">
         <v>12</v>
       </c>
@@ -715,7 +722,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="10" spans="1:9" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:9" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:9" ht="14.25" customHeight="1"/>
